--- a/RNN_python/output_data_test/anom_data7.xlsx
+++ b/RNN_python/output_data_test/anom_data7.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43110</v>
+        <v>43076</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.061034619788344</v>
+        <v>7.051675856506876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43110.04166666666</v>
+        <v>43076.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6009653848139322</v>
+        <v>10.59558361579973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43110.08333333334</v>
+        <v>43076.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8.248820054636866</v>
+        <v>0.08471922328068615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43110.125</v>
+        <v>43076.125</v>
       </c>
       <c r="D5" t="n">
-        <v>13.56153423986527</v>
+        <v>14.92716534752608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43110.16666666666</v>
+        <v>43076.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>17.41645720578499</v>
+        <v>31.14283536574924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43110.20833333334</v>
+        <v>43076.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>16.28444804055823</v>
+        <v>52.45941234018753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43110.25</v>
+        <v>43076.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14.59641694716755</v>
+        <v>80.78518404606203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43110.29166666666</v>
+        <v>43076.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>71.36568598370623</v>
+        <v>142.4183000937533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43110.33333333334</v>
+        <v>43076.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>428.3585773429219</v>
+        <v>306.691370947935</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43110.375</v>
+        <v>43076.375</v>
       </c>
       <c r="D11" t="n">
-        <v>404.1227024986536</v>
+        <v>389.893840459214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43110.41666666666</v>
+        <v>43076.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>393.1217150838394</v>
+        <v>396.2962942641267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43110.45833333334</v>
+        <v>43076.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>298.5525372583123</v>
+        <v>375.3885435839688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43110.5</v>
+        <v>43076.5</v>
       </c>
       <c r="D14" t="n">
-        <v>275.2893579539949</v>
+        <v>342.2685498526006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43110.54166666666</v>
+        <v>43076.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>237.7423373993113</v>
+        <v>298.443536790902</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43110.58333333334</v>
+        <v>43076.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>183.5714459939213</v>
+        <v>250.4570366898216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43110.625</v>
+        <v>43076.625</v>
       </c>
       <c r="D17" t="n">
-        <v>136.4439188597866</v>
+        <v>203.2089837486739</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43110.66666666666</v>
+        <v>43076.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>100.0641736246953</v>
+        <v>158.7560162692617</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43110.70833333334</v>
+        <v>43076.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>72.27642859094533</v>
+        <v>118.4510553459068</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43110.75</v>
+        <v>43076.75</v>
       </c>
       <c r="D20" t="n">
-        <v>51.1204198437367</v>
+        <v>83.74941528204982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43110.79166666666</v>
+        <v>43076.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>35.30294645664011</v>
+        <v>56.30267452550817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43110.83333333334</v>
+        <v>43076.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23.92504569537179</v>
+        <v>37.25653024712378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43110.875</v>
+        <v>43076.875</v>
       </c>
       <c r="D23" t="n">
-        <v>16.20588148369639</v>
+        <v>26.25030362700259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43110.91666666666</v>
+        <v>43076.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11.39882452035216</v>
+        <v>21.36746794231694</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43110.95833333334</v>
+        <v>43076.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8.85859670313414</v>
+        <v>19.86411184968014</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43110</v>
+        <v>43076</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43110.04166666666</v>
+        <v>43076.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43110.08333333334</v>
+        <v>43076.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43110.125</v>
+        <v>43076.125</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43110.16666666666</v>
+        <v>43076.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43110.20833333334</v>
+        <v>43076.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43110.25</v>
+        <v>43076.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43110.29166666666</v>
+        <v>43076.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43110.33333333334</v>
+        <v>43076.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43110.375</v>
+        <v>43076.375</v>
       </c>
       <c r="D11" t="n">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43110.41666666666</v>
+        <v>43076.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>597</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43110.45833333334</v>
+        <v>43076.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>401</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43110.5</v>
+        <v>43076.5</v>
       </c>
       <c r="D14" t="n">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43110.54166666666</v>
+        <v>43076.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43110.58333333334</v>
+        <v>43076.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43110.625</v>
+        <v>43076.625</v>
       </c>
       <c r="D17" t="n">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43110.66666666666</v>
+        <v>43076.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43110.70833333334</v>
+        <v>43076.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43110.75</v>
+        <v>43076.75</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43110.79166666666</v>
+        <v>43076.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43110.83333333334</v>
+        <v>43076.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43110.875</v>
+        <v>43076.875</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43110.91666666666</v>
+        <v>43076.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43110.95833333334</v>
+        <v>43076.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data7.xlsx
+++ b/RNN_python/output_data_test/anom_data7.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43076</v>
+        <v>43091</v>
       </c>
       <c r="D2" t="n">
-        <v>7.051675856506876</v>
+        <v>6.999097254539478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43076.04166666666</v>
+        <v>43091.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10.59558361579973</v>
+        <v>3.265011196521144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43076.08333333334</v>
+        <v>43091.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08471922328068615</v>
+        <v>10.1366654259613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43076.125</v>
+        <v>43091.125</v>
       </c>
       <c r="D5" t="n">
-        <v>14.92716534752608</v>
+        <v>9.275284868534911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43076.16666666666</v>
+        <v>43091.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>31.14283536574924</v>
+        <v>10.84443565139934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43076.20833333334</v>
+        <v>43091.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>52.45941234018753</v>
+        <v>-0.168392139452564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43076.25</v>
+        <v>43091.25</v>
       </c>
       <c r="D8" t="n">
-        <v>80.78518404606203</v>
+        <v>21.48092483675454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43076.29166666666</v>
+        <v>43091.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>142.4183000937533</v>
+        <v>271.9947628813064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43076.33333333334</v>
+        <v>43091.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>306.691370947935</v>
+        <v>454.2157995519192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43076.375</v>
+        <v>43091.375</v>
       </c>
       <c r="D11" t="n">
-        <v>389.893840459214</v>
+        <v>452.1061639962811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43076.41666666666</v>
+        <v>43091.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>396.2962942641267</v>
+        <v>377.541481834715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43076.45833333334</v>
+        <v>43091.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>375.3885435839688</v>
+        <v>313.3574415713507</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43076.5</v>
+        <v>43091.5</v>
       </c>
       <c r="D14" t="n">
-        <v>342.2685498526006</v>
+        <v>277.8262224999028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43076.54166666666</v>
+        <v>43091.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>298.443536790902</v>
+        <v>211.3462198077526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43076.58333333334</v>
+        <v>43091.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>250.4570366898216</v>
+        <v>152.2951258047146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43076.625</v>
+        <v>43091.625</v>
       </c>
       <c r="D17" t="n">
-        <v>203.2089837486739</v>
+        <v>118.4711525338011</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43076.66666666666</v>
+        <v>43091.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>158.7560162692617</v>
+        <v>89.71014450180823</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43076.70833333334</v>
+        <v>43091.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>118.4510553459068</v>
+        <v>63.98553423815889</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43076.75</v>
+        <v>43091.75</v>
       </c>
       <c r="D20" t="n">
-        <v>83.74941528204982</v>
+        <v>45.9429878570383</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43076.79166666666</v>
+        <v>43091.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>56.30267452550817</v>
+        <v>32.53530567578214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43076.83333333334</v>
+        <v>43091.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37.25653024712378</v>
+        <v>22.93097059539252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43076.875</v>
+        <v>43091.875</v>
       </c>
       <c r="D23" t="n">
-        <v>26.25030362700259</v>
+        <v>16.37811034984715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43076.91666666666</v>
+        <v>43091.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>21.36746794231694</v>
+        <v>12.27061031972717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43076.95833333334</v>
+        <v>43091.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>19.86411184968014</v>
+        <v>30.39753282148696</v>
       </c>
     </row>
   </sheetData>
@@ -709,41 +709,41 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43076</v>
+        <v>43091</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43076.04166666666</v>
+        <v>43091.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43076.08333333334</v>
+        <v>43091.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43076.125</v>
+        <v>43091.125</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
@@ -753,200 +753,200 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43076.16666666666</v>
+        <v>43091.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43076.20833333334</v>
+        <v>43091.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43076.25</v>
+        <v>43091.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43076.29166666666</v>
+        <v>43091.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43076.33333333334</v>
+        <v>43091.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>459</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43076.375</v>
+        <v>43091.375</v>
       </c>
       <c r="D11" t="n">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43076.41666666666</v>
+        <v>43091.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43076.45833333334</v>
+        <v>43091.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43076.5</v>
+        <v>43091.5</v>
       </c>
       <c r="D14" t="n">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43076.54166666666</v>
+        <v>43091.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43076.58333333334</v>
+        <v>43091.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43076.625</v>
+        <v>43091.625</v>
       </c>
       <c r="D17" t="n">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43076.66666666666</v>
+        <v>43091.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43076.70833333334</v>
+        <v>43091.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43076.75</v>
+        <v>43091.75</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43076.79166666666</v>
+        <v>43091.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43076.83333333334</v>
+        <v>43091.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43076.875</v>
+        <v>43091.875</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43076.91666666666</v>
+        <v>43091.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43076.95833333334</v>
+        <v>43091.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
